--- a/output/resultados_pobreza.xlsx
+++ b/output/resultados_pobreza.xlsx
@@ -903,7 +903,7 @@
         <v>59062.08671086701</v>
       </c>
       <c r="K2">
-        <v>26932311.54015535</v>
+        <v>26932311.54015536</v>
       </c>
     </row>
     <row r="3">
@@ -970,7 +970,7 @@
         <v>0.098</v>
       </c>
       <c r="J4">
-        <v>75299.89828303661</v>
+        <v>75299.89828303662</v>
       </c>
       <c r="K4">
         <v>30270559.10978072</v>
@@ -1110,7 +1110,7 @@
         <v>0.098</v>
       </c>
       <c r="J8">
-        <v>105107.5214273758</v>
+        <v>105107.5214273759</v>
       </c>
       <c r="K8">
         <v>36997847.5424363</v>

--- a/output/resultados_pobreza.xlsx
+++ b/output/resultados_pobreza.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="tablaMuestreo_pobreza_Urbana" sheetId="1" r:id="rId1"/>
-    <sheet name="tablaMuestreo_pobreza_Rural" sheetId="2" r:id="rId2"/>
-    <sheet name="tablaMuestreo_pobreza_Nacional" sheetId="3" r:id="rId3"/>
+    <sheet name="Urbana" sheetId="1" r:id="rId1"/>
+    <sheet name="Rural" sheetId="2" r:id="rId2"/>
+    <sheet name="Nacional" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -421,34 +421,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>3.03</v>
+        <v>4.06</v>
       </c>
       <c r="D2">
-        <v>791</v>
+        <v>627</v>
       </c>
       <c r="E2">
-        <v>3953</v>
+        <v>3136</v>
       </c>
       <c r="F2">
-        <v>5505</v>
+        <v>9958</v>
       </c>
       <c r="G2">
         <v>0.05</v>
       </c>
       <c r="H2">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="I2">
         <v>0.098</v>
       </c>
       <c r="J2">
-        <v>46826.83825372982</v>
+        <v>47974.83825372982</v>
       </c>
       <c r="K2">
-        <v>37040029.05870029</v>
+        <v>30080223.5850886</v>
       </c>
     </row>
     <row r="3">
@@ -456,34 +456,34 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>4.72</v>
       </c>
       <c r="D3">
-        <v>762</v>
+        <v>607</v>
       </c>
       <c r="E3">
-        <v>4570</v>
+        <v>3639</v>
       </c>
       <c r="F3">
-        <v>6364</v>
+        <v>11556</v>
       </c>
       <c r="G3">
         <v>0.05</v>
       </c>
       <c r="H3">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="I3">
         <v>0.098</v>
       </c>
       <c r="J3">
-        <v>53779.92502821844</v>
+        <v>54864.92502821844</v>
       </c>
       <c r="K3">
-        <v>40980302.87150245</v>
+        <v>33303009.49212859</v>
       </c>
     </row>
     <row r="4">
@@ -491,34 +491,34 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>3.97</v>
+        <v>5.37</v>
       </c>
       <c r="D4">
-        <v>741</v>
+        <v>592</v>
       </c>
       <c r="E4">
-        <v>5187</v>
+        <v>4142</v>
       </c>
       <c r="F4">
-        <v>7223</v>
+        <v>13152</v>
       </c>
       <c r="G4">
         <v>0.05</v>
       </c>
       <c r="H4">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="I4">
         <v>0.098</v>
       </c>
       <c r="J4">
-        <v>60677.01180270704</v>
+        <v>61720.01180270704</v>
       </c>
       <c r="K4">
-        <v>44961665.74580592</v>
+        <v>36538246.98720257</v>
       </c>
     </row>
     <row r="5">
@@ -526,34 +526,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>4.44</v>
+        <v>6.03</v>
       </c>
       <c r="D5">
-        <v>725</v>
+        <v>580</v>
       </c>
       <c r="E5">
-        <v>5803</v>
+        <v>4644</v>
       </c>
       <c r="F5">
-        <v>8081</v>
+        <v>14746</v>
       </c>
       <c r="G5">
         <v>0.05</v>
       </c>
       <c r="H5">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="I5">
         <v>0.098</v>
       </c>
       <c r="J5">
-        <v>67539.09857719565</v>
+        <v>68554.09857719565</v>
       </c>
       <c r="K5">
-        <v>48965846.46846685</v>
+        <v>39761377.17477348</v>
       </c>
     </row>
     <row r="6">
@@ -561,34 +561,34 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>4.92</v>
+        <v>6.68</v>
       </c>
       <c r="D6">
-        <v>713</v>
+        <v>572</v>
       </c>
       <c r="E6">
-        <v>6419</v>
+        <v>5145</v>
       </c>
       <c r="F6">
-        <v>8939</v>
+        <v>16339</v>
       </c>
       <c r="G6">
         <v>0.05</v>
       </c>
       <c r="H6">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="I6">
         <v>0.098</v>
       </c>
       <c r="J6">
-        <v>74373.18535168427</v>
+        <v>75360.18535168427</v>
       </c>
       <c r="K6">
-        <v>53028081.15575089</v>
+        <v>43106026.0211634</v>
       </c>
     </row>
     <row r="7">
@@ -596,34 +596,34 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>5.39</v>
+        <v>7.33</v>
       </c>
       <c r="D7">
-        <v>703</v>
+        <v>565</v>
       </c>
       <c r="E7">
-        <v>7035</v>
+        <v>5647</v>
       </c>
       <c r="F7">
-        <v>9796</v>
+        <v>17931</v>
       </c>
       <c r="G7">
         <v>0.05</v>
       </c>
       <c r="H7">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="I7">
         <v>0.098</v>
       </c>
       <c r="J7">
-        <v>81193.27212617287</v>
+        <v>82159.27212617287</v>
       </c>
       <c r="K7">
-        <v>57078870.30469953</v>
+        <v>46419988.75128768</v>
       </c>
     </row>
     <row r="8">
@@ -631,34 +631,34 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>5.86</v>
+        <v>7.99</v>
       </c>
       <c r="D8">
-        <v>695</v>
+        <v>559</v>
       </c>
       <c r="E8">
-        <v>7650</v>
+        <v>6148</v>
       </c>
       <c r="F8">
-        <v>10653</v>
+        <v>19522</v>
       </c>
       <c r="G8">
         <v>0.05</v>
       </c>
       <c r="H8">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="I8">
         <v>0.098</v>
       </c>
       <c r="J8">
-        <v>87999.35890066148</v>
+        <v>88951.35890066148</v>
       </c>
       <c r="K8">
-        <v>61159554.43595973</v>
+        <v>49723809.62546977</v>
       </c>
     </row>
     <row r="9">
@@ -666,34 +666,34 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>6.34</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="D9">
-        <v>689</v>
+        <v>554</v>
       </c>
       <c r="E9">
-        <v>8265</v>
+        <v>6648</v>
       </c>
       <c r="F9">
-        <v>11510</v>
+        <v>21111</v>
       </c>
       <c r="G9">
         <v>0.05</v>
       </c>
       <c r="H9">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="I9">
         <v>0.098</v>
       </c>
       <c r="J9">
-        <v>94791.4456751501</v>
+        <v>95736.4456751501</v>
       </c>
       <c r="K9">
-        <v>65311306.07017842</v>
+        <v>53037990.90403315</v>
       </c>
     </row>
     <row r="10">
@@ -701,34 +701,34 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>6.81</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D10">
-        <v>683</v>
+        <v>550</v>
       </c>
       <c r="E10">
-        <v>8880</v>
+        <v>7148</v>
       </c>
       <c r="F10">
-        <v>12366</v>
+        <v>22698</v>
       </c>
       <c r="G10">
         <v>0.05</v>
       </c>
       <c r="H10">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="I10">
         <v>0.098</v>
       </c>
       <c r="J10">
-        <v>101583.5324496387</v>
+        <v>102514.5324496387</v>
       </c>
       <c r="K10">
-        <v>69381552.66310324</v>
+        <v>56382992.84730129</v>
       </c>
     </row>
     <row r="11">
@@ -736,34 +736,34 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>7.28</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D11">
-        <v>678</v>
+        <v>546</v>
       </c>
       <c r="E11">
-        <v>9495</v>
+        <v>7648</v>
       </c>
       <c r="F11">
-        <v>13222</v>
+        <v>24285</v>
       </c>
       <c r="G11">
         <v>0.05</v>
       </c>
       <c r="H11">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="I11">
         <v>0.098</v>
       </c>
       <c r="J11">
-        <v>108368.6192241273</v>
+        <v>109292.6192241273</v>
       </c>
       <c r="K11">
-        <v>73473923.83395831</v>
+        <v>59673770.09637351</v>
       </c>
     </row>
     <row r="12">
@@ -771,34 +771,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C12">
-        <v>7.75</v>
+        <v>10.6</v>
       </c>
       <c r="D12">
-        <v>674</v>
+        <v>543</v>
       </c>
       <c r="E12">
-        <v>10110</v>
+        <v>8147</v>
       </c>
       <c r="F12">
-        <v>14078</v>
+        <v>25869</v>
       </c>
       <c r="G12">
         <v>0.05</v>
       </c>
       <c r="H12">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="I12">
         <v>0.098</v>
       </c>
       <c r="J12">
-        <v>115146.7059986159</v>
+        <v>116063.7059986159</v>
       </c>
       <c r="K12">
-        <v>77608879.84306714</v>
+        <v>63022592.35724845</v>
       </c>
     </row>
   </sheetData>
@@ -876,19 +876,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="D2">
-        <v>456</v>
+        <v>341</v>
       </c>
       <c r="E2">
-        <v>2281</v>
+        <v>1706</v>
       </c>
       <c r="F2">
-        <v>2764</v>
+        <v>5374</v>
       </c>
       <c r="G2">
         <v>0.05</v>
@@ -900,10 +900,10 @@
         <v>0.098</v>
       </c>
       <c r="J2">
-        <v>59062.08671086701</v>
+        <v>64352.08671086701</v>
       </c>
       <c r="K2">
-        <v>26932311.54015536</v>
+        <v>21944061.56840565</v>
       </c>
     </row>
     <row r="3">
@@ -911,19 +911,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>2.18</v>
+        <v>4.4</v>
       </c>
       <c r="D3">
-        <v>425</v>
+        <v>329</v>
       </c>
       <c r="E3">
-        <v>2547</v>
+        <v>1973</v>
       </c>
       <c r="F3">
-        <v>3087</v>
+        <v>6216</v>
       </c>
       <c r="G3">
         <v>0.05</v>
@@ -935,10 +935,10 @@
         <v>0.098</v>
       </c>
       <c r="J3">
-        <v>67364.9924969518</v>
+        <v>71780.9924969518</v>
       </c>
       <c r="K3">
-        <v>28630121.81120452</v>
+        <v>23615946.53149714</v>
       </c>
     </row>
     <row r="4">
@@ -946,19 +946,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>2.41</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>402</v>
+        <v>320</v>
       </c>
       <c r="E4">
-        <v>2813</v>
+        <v>2240</v>
       </c>
       <c r="F4">
-        <v>3409</v>
+        <v>7057</v>
       </c>
       <c r="G4">
         <v>0.05</v>
@@ -970,10 +970,10 @@
         <v>0.098</v>
       </c>
       <c r="J4">
-        <v>75299.89828303662</v>
+        <v>79071.89828303661</v>
       </c>
       <c r="K4">
-        <v>30270559.10978072</v>
+        <v>25303007.45057172</v>
       </c>
     </row>
     <row r="5">
@@ -981,19 +981,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>2.64</v>
+        <v>5.6</v>
       </c>
       <c r="D5">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="E5">
-        <v>3078</v>
+        <v>2506</v>
       </c>
       <c r="F5">
-        <v>3731</v>
+        <v>7896</v>
       </c>
       <c r="G5">
         <v>0.05</v>
@@ -1005,10 +1005,10 @@
         <v>0.098</v>
       </c>
       <c r="J5">
-        <v>82958.80406912143</v>
+        <v>86270.80406912143</v>
       </c>
       <c r="K5">
-        <v>31939139.56661175</v>
+        <v>27002761.67363501</v>
       </c>
     </row>
     <row r="6">
@@ -1016,19 +1016,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>2.87</v>
+        <v>6.2</v>
       </c>
       <c r="D6">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="E6">
-        <v>3344</v>
+        <v>2773</v>
       </c>
       <c r="F6">
-        <v>4053</v>
+        <v>8735</v>
       </c>
       <c r="G6">
         <v>0.05</v>
@@ -1040,10 +1040,10 @@
         <v>0.098</v>
       </c>
       <c r="J6">
-        <v>90433.70985520622</v>
+        <v>93377.70985520622</v>
       </c>
       <c r="K6">
-        <v>33641340.06613672</v>
+        <v>28760334.63540352</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>3.09</v>
+        <v>6.8</v>
       </c>
       <c r="D7">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="E7">
-        <v>3610</v>
+        <v>3039</v>
       </c>
       <c r="F7">
-        <v>4375</v>
+        <v>9573</v>
       </c>
       <c r="G7">
         <v>0.05</v>
@@ -1075,10 +1075,10 @@
         <v>0.098</v>
       </c>
       <c r="J7">
-        <v>97816.61564129102</v>
+        <v>100438.615641291</v>
       </c>
       <c r="K7">
-        <v>35311798.24650606</v>
+        <v>30533339.15495247</v>
       </c>
     </row>
     <row r="8">
@@ -1086,19 +1086,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>3.32</v>
+        <v>7.4</v>
       </c>
       <c r="D8">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="E8">
-        <v>3875</v>
+        <v>3304</v>
       </c>
       <c r="F8">
-        <v>4696</v>
+        <v>10410</v>
       </c>
       <c r="G8">
         <v>0.05</v>
@@ -1110,10 +1110,10 @@
         <v>0.098</v>
       </c>
       <c r="J8">
-        <v>105107.5214273759</v>
+        <v>107499.5214273758</v>
       </c>
       <c r="K8">
-        <v>36997847.5424363</v>
+        <v>32249856.42821275</v>
       </c>
     </row>
     <row r="9">
@@ -1121,19 +1121,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>3.55</v>
+        <v>7.99</v>
       </c>
       <c r="D9">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="E9">
-        <v>4140</v>
+        <v>3570</v>
       </c>
       <c r="F9">
-        <v>5018</v>
+        <v>11246</v>
       </c>
       <c r="G9">
         <v>0.05</v>
@@ -1145,10 +1145,10 @@
         <v>0.098</v>
       </c>
       <c r="J9">
-        <v>112306.4272134606</v>
+        <v>114514.4272134606</v>
       </c>
       <c r="K9">
-        <v>38745717.38864392</v>
+        <v>34010784.88239781</v>
       </c>
     </row>
     <row r="10">
@@ -1156,19 +1156,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>3.78</v>
+        <v>8.59</v>
       </c>
       <c r="D10">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="E10">
-        <v>4405</v>
+        <v>3835</v>
       </c>
       <c r="F10">
-        <v>5339</v>
+        <v>12081</v>
       </c>
       <c r="G10">
         <v>0.05</v>
@@ -1180,10 +1180,10 @@
         <v>0.098</v>
       </c>
       <c r="J10">
-        <v>119459.3329995454</v>
+        <v>121483.3329995454</v>
       </c>
       <c r="K10">
-        <v>40496713.8868459</v>
+        <v>35837583.2348659</v>
       </c>
     </row>
     <row r="11">
@@ -1191,19 +1191,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>4.01</v>
+        <v>9.19</v>
       </c>
       <c r="D11">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="E11">
-        <v>4670</v>
+        <v>4100</v>
       </c>
       <c r="F11">
-        <v>5660</v>
+        <v>12915</v>
       </c>
       <c r="G11">
         <v>0.05</v>
@@ -1215,10 +1215,10 @@
         <v>0.098</v>
       </c>
       <c r="J11">
-        <v>126566.2387856302</v>
+        <v>128452.2387856302</v>
       </c>
       <c r="K11">
-        <v>42273123.7544005</v>
+        <v>37636505.96418966</v>
       </c>
     </row>
     <row r="12">
@@ -1226,19 +1226,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>4.23</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D12">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="E12">
-        <v>4935</v>
+        <v>4364</v>
       </c>
       <c r="F12">
-        <v>5981</v>
+        <v>13748</v>
       </c>
       <c r="G12">
         <v>0.05</v>
@@ -1250,10 +1250,10 @@
         <v>0.098</v>
       </c>
       <c r="J12">
-        <v>133673.1445717151</v>
+        <v>135421.1445717151</v>
       </c>
       <c r="K12">
-        <v>43978464.56409425</v>
+        <v>39407553.07036909</v>
       </c>
     </row>
   </sheetData>
@@ -1331,34 +1331,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>6.631114675220529</v>
+        <v>15.83884297520661</v>
       </c>
       <c r="C2">
-        <v>2.275185862976095</v>
+        <v>3.871461045670593</v>
       </c>
       <c r="D2">
-        <v>1247</v>
+        <v>968</v>
       </c>
       <c r="E2">
-        <v>6234</v>
+        <v>4842</v>
       </c>
       <c r="F2">
-        <v>8269</v>
+        <v>15332</v>
       </c>
       <c r="G2">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="H2">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="I2">
-        <v>0.067</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J2">
-        <v>51300.99523552549</v>
+        <v>53744.09667881054</v>
       </c>
       <c r="K2">
-        <v>63972341.05870029</v>
+        <v>52024285.5850886</v>
       </c>
     </row>
     <row r="3">
@@ -1366,34 +1366,34 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>7.962089300758214</v>
+        <v>18.98717948717949</v>
       </c>
       <c r="C3">
-        <v>2.56842421010532</v>
+        <v>4.487695749440715</v>
       </c>
       <c r="D3">
-        <v>1187</v>
+        <v>936</v>
       </c>
       <c r="E3">
-        <v>7117</v>
+        <v>5612</v>
       </c>
       <c r="F3">
-        <v>9451</v>
+        <v>17772</v>
       </c>
       <c r="G3">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="H3">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="I3">
-        <v>0.066</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J3">
-        <v>58643.99736436601</v>
+        <v>60810.85095312884</v>
       </c>
       <c r="K3">
-        <v>69610424.87150246</v>
+        <v>56918956.4921286</v>
       </c>
     </row>
     <row r="4">
@@ -1401,34 +1401,34 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>9.301837270341208</v>
+        <v>22.15899122807017</v>
       </c>
       <c r="C4">
-        <v>2.860764676278161</v>
+        <v>5.101310951417682</v>
       </c>
       <c r="D4">
-        <v>1143</v>
+        <v>912</v>
       </c>
       <c r="E4">
-        <v>8000</v>
+        <v>6382</v>
       </c>
       <c r="F4">
-        <v>10632</v>
+        <v>20209</v>
       </c>
       <c r="G4">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="H4">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="I4">
-        <v>0.066</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J4">
-        <v>65819.96915643562</v>
+        <v>67808.39252982738</v>
       </c>
       <c r="K4">
-        <v>75232224.74580592</v>
+        <v>61841253.98720257</v>
       </c>
     </row>
     <row r="5">
@@ -1436,34 +1436,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>10.64144144144144</v>
+        <v>25.35498320268757</v>
       </c>
       <c r="C5">
-        <v>3.152478031634447</v>
+        <v>5.717518400844596</v>
       </c>
       <c r="D5">
-        <v>1110</v>
+        <v>893</v>
       </c>
       <c r="E5">
-        <v>8881</v>
+        <v>7150</v>
       </c>
       <c r="F5">
-        <v>11812</v>
+        <v>22642</v>
       </c>
       <c r="G5">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="H5">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="I5">
-        <v>0.066</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J5">
-        <v>72887.37519681698</v>
+        <v>74763.87365596135</v>
       </c>
       <c r="K5">
-        <v>80904986.46846685</v>
+        <v>66764139.17477348</v>
       </c>
     </row>
     <row r="6">
@@ -1471,34 +1471,34 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>11.9741935483871</v>
+        <v>28.49318181818182</v>
       </c>
       <c r="C6">
-        <v>3.445705794947994</v>
+        <v>6.331127257031868</v>
       </c>
       <c r="D6">
-        <v>1085</v>
+        <v>880</v>
       </c>
       <c r="E6">
-        <v>9763</v>
+        <v>7918</v>
       </c>
       <c r="F6">
-        <v>12992</v>
+        <v>25074</v>
       </c>
       <c r="G6">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="H6">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="I6">
-        <v>0.066</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J6">
-        <v>79879.65083479344</v>
+        <v>81666.31934223115</v>
       </c>
       <c r="K6">
-        <v>86669421.15575089</v>
+        <v>71866361.0211634</v>
       </c>
     </row>
     <row r="7">
@@ -1506,34 +1506,34 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>13.31860902255639</v>
+        <v>31.65017261219793</v>
       </c>
       <c r="C7">
-        <v>3.727872307419555</v>
+        <v>6.944735397047856</v>
       </c>
       <c r="D7">
-        <v>1064</v>
+        <v>869</v>
       </c>
       <c r="E7">
-        <v>10645</v>
+        <v>8686</v>
       </c>
       <c r="F7">
-        <v>14171</v>
+        <v>27504</v>
       </c>
       <c r="G7">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="H7">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="I7">
-        <v>0.065</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J7">
-        <v>86833.33487283792</v>
+        <v>88553.88694049214</v>
       </c>
       <c r="K7">
-        <v>92390668.30469954</v>
+        <v>76953327.75128767</v>
       </c>
     </row>
     <row r="8">
@@ -1541,34 +1541,34 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>14.65998089780325</v>
+        <v>34.84516880093132</v>
       </c>
       <c r="C8">
-        <v>4.018436368841899</v>
+        <v>7.560926439946142</v>
       </c>
       <c r="D8">
-        <v>1047</v>
+        <v>859</v>
       </c>
       <c r="E8">
-        <v>11525</v>
+        <v>9452</v>
       </c>
       <c r="F8">
-        <v>15349</v>
+        <v>29932</v>
       </c>
       <c r="G8">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="H8">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="I8">
-        <v>0.065</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J8">
-        <v>93751.10070292237</v>
+        <v>95429.18000636761</v>
       </c>
       <c r="K8">
-        <v>98157402.43595973</v>
+        <v>81973665.62546977</v>
       </c>
     </row>
     <row r="9">
@@ -1576,34 +1576,34 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>15.98452611218569</v>
+        <v>38.02232667450059</v>
       </c>
       <c r="C9">
-        <v>4.310663796945073</v>
+        <v>8.167098368071262</v>
       </c>
       <c r="D9">
-        <v>1034</v>
+        <v>851</v>
       </c>
       <c r="E9">
-        <v>12405</v>
+        <v>10218</v>
       </c>
       <c r="F9">
-        <v>16528</v>
+        <v>32357</v>
       </c>
       <c r="G9">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="H9">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="I9">
-        <v>0.065</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J9">
-        <v>100635.4188299598</v>
+        <v>102289.9834359967</v>
       </c>
       <c r="K9">
-        <v>104057023.0701784</v>
+        <v>87048775.90403315</v>
       </c>
     </row>
     <row r="10">
@@ -1611,34 +1611,34 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>17.32387475538161</v>
+        <v>41.15857988165681</v>
       </c>
       <c r="C10">
-        <v>4.600857908847185</v>
+        <v>8.780703559870549</v>
       </c>
       <c r="D10">
-        <v>1022</v>
+        <v>845</v>
       </c>
       <c r="E10">
-        <v>13285</v>
+        <v>10983</v>
       </c>
       <c r="F10">
-        <v>17705</v>
+        <v>34779</v>
       </c>
       <c r="G10">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="H10">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="I10">
-        <v>0.065</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J10">
-        <v>107512.9810793574</v>
+        <v>109136.7761506524</v>
       </c>
       <c r="K10">
-        <v>109878266.6631032</v>
+        <v>92220575.84730129</v>
       </c>
     </row>
     <row r="11">
@@ -1646,34 +1646,34 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>18.65810276679842</v>
+        <v>44.33849821215733</v>
       </c>
       <c r="C11">
-        <v>4.890930172764143</v>
+        <v>9.396881385030163</v>
       </c>
       <c r="D11">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="E11">
-        <v>14165</v>
+        <v>11748</v>
       </c>
       <c r="F11">
-        <v>18882</v>
+        <v>37200</v>
       </c>
       <c r="G11">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="H11">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="I11">
-        <v>0.065</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J11">
-        <v>114374.553195611</v>
+        <v>115983.6425463332</v>
       </c>
       <c r="K11">
-        <v>115747047.8339583</v>
+        <v>97310276.09637351</v>
       </c>
     </row>
     <row r="12">
@@ -1681,34 +1681,34 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>19.99900299102692</v>
+        <v>47.50239808153477</v>
       </c>
       <c r="C12">
-        <v>5.171952857745358</v>
+        <v>10.01048623681418</v>
       </c>
       <c r="D12">
-        <v>1003</v>
+        <v>834</v>
       </c>
       <c r="E12">
-        <v>15045</v>
+        <v>12511</v>
       </c>
       <c r="F12">
-        <v>20059</v>
+        <v>39617</v>
       </c>
       <c r="G12">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="H12">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="I12">
-        <v>0.065</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J12">
-        <v>121223.6738216023</v>
+        <v>122817.920092624</v>
       </c>
       <c r="K12">
-        <v>121587344.8430671</v>
+        <v>102430145.3572485</v>
       </c>
     </row>
   </sheetData>

--- a/output/resultados_pobreza.xlsx
+++ b/output/resultados_pobreza.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Urbana" sheetId="1" r:id="rId1"/>
     <sheet name="Rural" sheetId="2" r:id="rId2"/>
-    <sheet name="Nacional" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -353,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,25 +391,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -436,18 +420,9 @@
         <v>9958</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>47974.83825372982</v>
       </c>
       <c r="H2">
-        <v>0.014</v>
-      </c>
-      <c r="I2">
-        <v>0.098</v>
-      </c>
-      <c r="J2">
-        <v>47974.83825372982</v>
-      </c>
-      <c r="K2">
         <v>30080223.5850886</v>
       </c>
     </row>
@@ -471,18 +446,9 @@
         <v>11556</v>
       </c>
       <c r="G3">
-        <v>0.05</v>
+        <v>54864.92502821844</v>
       </c>
       <c r="H3">
-        <v>0.014</v>
-      </c>
-      <c r="I3">
-        <v>0.098</v>
-      </c>
-      <c r="J3">
-        <v>54864.92502821844</v>
-      </c>
-      <c r="K3">
         <v>33303009.49212859</v>
       </c>
     </row>
@@ -506,18 +472,9 @@
         <v>13152</v>
       </c>
       <c r="G4">
-        <v>0.05</v>
+        <v>61720.01180270704</v>
       </c>
       <c r="H4">
-        <v>0.014</v>
-      </c>
-      <c r="I4">
-        <v>0.098</v>
-      </c>
-      <c r="J4">
-        <v>61720.01180270704</v>
-      </c>
-      <c r="K4">
         <v>36538246.98720257</v>
       </c>
     </row>
@@ -541,18 +498,9 @@
         <v>14746</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>68554.09857719565</v>
       </c>
       <c r="H5">
-        <v>0.014</v>
-      </c>
-      <c r="I5">
-        <v>0.098</v>
-      </c>
-      <c r="J5">
-        <v>68554.09857719565</v>
-      </c>
-      <c r="K5">
         <v>39761377.17477348</v>
       </c>
     </row>
@@ -576,18 +524,9 @@
         <v>16339</v>
       </c>
       <c r="G6">
-        <v>0.05</v>
+        <v>75360.18535168427</v>
       </c>
       <c r="H6">
-        <v>0.014</v>
-      </c>
-      <c r="I6">
-        <v>0.098</v>
-      </c>
-      <c r="J6">
-        <v>75360.18535168427</v>
-      </c>
-      <c r="K6">
         <v>43106026.0211634</v>
       </c>
     </row>
@@ -611,18 +550,9 @@
         <v>17931</v>
       </c>
       <c r="G7">
-        <v>0.05</v>
+        <v>82159.27212617287</v>
       </c>
       <c r="H7">
-        <v>0.014</v>
-      </c>
-      <c r="I7">
-        <v>0.098</v>
-      </c>
-      <c r="J7">
-        <v>82159.27212617287</v>
-      </c>
-      <c r="K7">
         <v>46419988.75128768</v>
       </c>
     </row>
@@ -646,18 +576,9 @@
         <v>19522</v>
       </c>
       <c r="G8">
-        <v>0.05</v>
+        <v>88951.35890066148</v>
       </c>
       <c r="H8">
-        <v>0.014</v>
-      </c>
-      <c r="I8">
-        <v>0.098</v>
-      </c>
-      <c r="J8">
-        <v>88951.35890066148</v>
-      </c>
-      <c r="K8">
         <v>49723809.62546977</v>
       </c>
     </row>
@@ -681,18 +602,9 @@
         <v>21111</v>
       </c>
       <c r="G9">
-        <v>0.05</v>
+        <v>95736.4456751501</v>
       </c>
       <c r="H9">
-        <v>0.014</v>
-      </c>
-      <c r="I9">
-        <v>0.098</v>
-      </c>
-      <c r="J9">
-        <v>95736.4456751501</v>
-      </c>
-      <c r="K9">
         <v>53037990.90403315</v>
       </c>
     </row>
@@ -716,18 +628,9 @@
         <v>22698</v>
       </c>
       <c r="G10">
-        <v>0.05</v>
+        <v>102514.5324496387</v>
       </c>
       <c r="H10">
-        <v>0.014</v>
-      </c>
-      <c r="I10">
-        <v>0.098</v>
-      </c>
-      <c r="J10">
-        <v>102514.5324496387</v>
-      </c>
-      <c r="K10">
         <v>56382992.84730129</v>
       </c>
     </row>
@@ -751,18 +654,9 @@
         <v>24285</v>
       </c>
       <c r="G11">
-        <v>0.05</v>
+        <v>109292.6192241273</v>
       </c>
       <c r="H11">
-        <v>0.014</v>
-      </c>
-      <c r="I11">
-        <v>0.098</v>
-      </c>
-      <c r="J11">
-        <v>109292.6192241273</v>
-      </c>
-      <c r="K11">
         <v>59673770.09637351</v>
       </c>
     </row>
@@ -786,18 +680,9 @@
         <v>25869</v>
       </c>
       <c r="G12">
-        <v>0.05</v>
+        <v>116063.7059986159</v>
       </c>
       <c r="H12">
-        <v>0.014</v>
-      </c>
-      <c r="I12">
-        <v>0.098</v>
-      </c>
-      <c r="J12">
-        <v>116063.7059986159</v>
-      </c>
-      <c r="K12">
         <v>63022592.35724845</v>
       </c>
     </row>
@@ -808,7 +693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,25 +732,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -891,18 +761,9 @@
         <v>5374</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>64352.08671086701</v>
       </c>
       <c r="H2">
-        <v>0.022</v>
-      </c>
-      <c r="I2">
-        <v>0.098</v>
-      </c>
-      <c r="J2">
-        <v>64352.08671086701</v>
-      </c>
-      <c r="K2">
         <v>21944061.56840565</v>
       </c>
     </row>
@@ -926,18 +787,9 @@
         <v>6216</v>
       </c>
       <c r="G3">
-        <v>0.05</v>
+        <v>71780.9924969518</v>
       </c>
       <c r="H3">
-        <v>0.022</v>
-      </c>
-      <c r="I3">
-        <v>0.098</v>
-      </c>
-      <c r="J3">
-        <v>71780.9924969518</v>
-      </c>
-      <c r="K3">
         <v>23615946.53149714</v>
       </c>
     </row>
@@ -961,18 +813,9 @@
         <v>7057</v>
       </c>
       <c r="G4">
-        <v>0.05</v>
+        <v>79071.89828303661</v>
       </c>
       <c r="H4">
-        <v>0.022</v>
-      </c>
-      <c r="I4">
-        <v>0.098</v>
-      </c>
-      <c r="J4">
-        <v>79071.89828303661</v>
-      </c>
-      <c r="K4">
         <v>25303007.45057172</v>
       </c>
     </row>
@@ -996,18 +839,9 @@
         <v>7896</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>86270.80406912143</v>
       </c>
       <c r="H5">
-        <v>0.022</v>
-      </c>
-      <c r="I5">
-        <v>0.098</v>
-      </c>
-      <c r="J5">
-        <v>86270.80406912143</v>
-      </c>
-      <c r="K5">
         <v>27002761.67363501</v>
       </c>
     </row>
@@ -1031,18 +865,9 @@
         <v>8735</v>
       </c>
       <c r="G6">
-        <v>0.05</v>
+        <v>93377.70985520622</v>
       </c>
       <c r="H6">
-        <v>0.022</v>
-      </c>
-      <c r="I6">
-        <v>0.098</v>
-      </c>
-      <c r="J6">
-        <v>93377.70985520622</v>
-      </c>
-      <c r="K6">
         <v>28760334.63540352</v>
       </c>
     </row>
@@ -1066,18 +891,9 @@
         <v>9573</v>
       </c>
       <c r="G7">
-        <v>0.05</v>
+        <v>100438.615641291</v>
       </c>
       <c r="H7">
-        <v>0.022</v>
-      </c>
-      <c r="I7">
-        <v>0.098</v>
-      </c>
-      <c r="J7">
-        <v>100438.615641291</v>
-      </c>
-      <c r="K7">
         <v>30533339.15495247</v>
       </c>
     </row>
@@ -1101,18 +917,9 @@
         <v>10410</v>
       </c>
       <c r="G8">
-        <v>0.05</v>
+        <v>107499.5214273758</v>
       </c>
       <c r="H8">
-        <v>0.022</v>
-      </c>
-      <c r="I8">
-        <v>0.098</v>
-      </c>
-      <c r="J8">
-        <v>107499.5214273758</v>
-      </c>
-      <c r="K8">
         <v>32249856.42821275</v>
       </c>
     </row>
@@ -1136,18 +943,9 @@
         <v>11246</v>
       </c>
       <c r="G9">
-        <v>0.05</v>
+        <v>114514.4272134606</v>
       </c>
       <c r="H9">
-        <v>0.022</v>
-      </c>
-      <c r="I9">
-        <v>0.098</v>
-      </c>
-      <c r="J9">
-        <v>114514.4272134606</v>
-      </c>
-      <c r="K9">
         <v>34010784.88239781</v>
       </c>
     </row>
@@ -1171,18 +969,9 @@
         <v>12081</v>
       </c>
       <c r="G10">
-        <v>0.05</v>
+        <v>121483.3329995454</v>
       </c>
       <c r="H10">
-        <v>0.022</v>
-      </c>
-      <c r="I10">
-        <v>0.098</v>
-      </c>
-      <c r="J10">
-        <v>121483.3329995454</v>
-      </c>
-      <c r="K10">
         <v>35837583.2348659</v>
       </c>
     </row>
@@ -1206,18 +995,9 @@
         <v>12915</v>
       </c>
       <c r="G11">
-        <v>0.05</v>
+        <v>128452.2387856302</v>
       </c>
       <c r="H11">
-        <v>0.022</v>
-      </c>
-      <c r="I11">
-        <v>0.098</v>
-      </c>
-      <c r="J11">
-        <v>128452.2387856302</v>
-      </c>
-      <c r="K11">
         <v>37636505.96418966</v>
       </c>
     </row>
@@ -1241,474 +1021,10 @@
         <v>13748</v>
       </c>
       <c r="G12">
-        <v>0.05</v>
+        <v>135421.1445717151</v>
       </c>
       <c r="H12">
-        <v>0.022</v>
-      </c>
-      <c r="I12">
-        <v>0.098</v>
-      </c>
-      <c r="J12">
-        <v>135421.1445717151</v>
-      </c>
-      <c r="K12">
         <v>39407553.07036909</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsPerPSU</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsPerPSU</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DEFF</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PSUinSample</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsInSample</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsInSample</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cve</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>15.83884297520661</v>
-      </c>
-      <c r="C2">
-        <v>3.871461045670593</v>
-      </c>
-      <c r="D2">
-        <v>968</v>
-      </c>
-      <c r="E2">
-        <v>4842</v>
-      </c>
-      <c r="F2">
-        <v>15332</v>
-      </c>
-      <c r="G2">
-        <v>0.036</v>
-      </c>
-      <c r="H2">
-        <v>0.011</v>
-      </c>
-      <c r="I2">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="J2">
-        <v>53744.09667881054</v>
-      </c>
-      <c r="K2">
-        <v>52024285.5850886</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>18.98717948717949</v>
-      </c>
-      <c r="C3">
-        <v>4.487695749440715</v>
-      </c>
-      <c r="D3">
-        <v>936</v>
-      </c>
-      <c r="E3">
-        <v>5612</v>
-      </c>
-      <c r="F3">
-        <v>17772</v>
-      </c>
-      <c r="G3">
-        <v>0.036</v>
-      </c>
-      <c r="H3">
-        <v>0.011</v>
-      </c>
-      <c r="I3">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="J3">
-        <v>60810.85095312884</v>
-      </c>
-      <c r="K3">
-        <v>56918956.4921286</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>22.15899122807017</v>
-      </c>
-      <c r="C4">
-        <v>5.101310951417682</v>
-      </c>
-      <c r="D4">
-        <v>912</v>
-      </c>
-      <c r="E4">
-        <v>6382</v>
-      </c>
-      <c r="F4">
-        <v>20209</v>
-      </c>
-      <c r="G4">
-        <v>0.036</v>
-      </c>
-      <c r="H4">
-        <v>0.011</v>
-      </c>
-      <c r="I4">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="J4">
-        <v>67808.39252982738</v>
-      </c>
-      <c r="K4">
-        <v>61841253.98720257</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>25.35498320268757</v>
-      </c>
-      <c r="C5">
-        <v>5.717518400844596</v>
-      </c>
-      <c r="D5">
-        <v>893</v>
-      </c>
-      <c r="E5">
-        <v>7150</v>
-      </c>
-      <c r="F5">
-        <v>22642</v>
-      </c>
-      <c r="G5">
-        <v>0.036</v>
-      </c>
-      <c r="H5">
-        <v>0.011</v>
-      </c>
-      <c r="I5">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="J5">
-        <v>74763.87365596135</v>
-      </c>
-      <c r="K5">
-        <v>66764139.17477348</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>28.49318181818182</v>
-      </c>
-      <c r="C6">
-        <v>6.331127257031868</v>
-      </c>
-      <c r="D6">
-        <v>880</v>
-      </c>
-      <c r="E6">
-        <v>7918</v>
-      </c>
-      <c r="F6">
-        <v>25074</v>
-      </c>
-      <c r="G6">
-        <v>0.036</v>
-      </c>
-      <c r="H6">
-        <v>0.011</v>
-      </c>
-      <c r="I6">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="J6">
-        <v>81666.31934223115</v>
-      </c>
-      <c r="K6">
-        <v>71866361.0211634</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>31.65017261219793</v>
-      </c>
-      <c r="C7">
-        <v>6.944735397047856</v>
-      </c>
-      <c r="D7">
-        <v>869</v>
-      </c>
-      <c r="E7">
-        <v>8686</v>
-      </c>
-      <c r="F7">
-        <v>27504</v>
-      </c>
-      <c r="G7">
-        <v>0.036</v>
-      </c>
-      <c r="H7">
-        <v>0.011</v>
-      </c>
-      <c r="I7">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="J7">
-        <v>88553.88694049214</v>
-      </c>
-      <c r="K7">
-        <v>76953327.75128767</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>34.84516880093132</v>
-      </c>
-      <c r="C8">
-        <v>7.560926439946142</v>
-      </c>
-      <c r="D8">
-        <v>859</v>
-      </c>
-      <c r="E8">
-        <v>9452</v>
-      </c>
-      <c r="F8">
-        <v>29932</v>
-      </c>
-      <c r="G8">
-        <v>0.036</v>
-      </c>
-      <c r="H8">
-        <v>0.011</v>
-      </c>
-      <c r="I8">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="J8">
-        <v>95429.18000636761</v>
-      </c>
-      <c r="K8">
-        <v>81973665.62546977</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>38.02232667450059</v>
-      </c>
-      <c r="C9">
-        <v>8.167098368071262</v>
-      </c>
-      <c r="D9">
-        <v>851</v>
-      </c>
-      <c r="E9">
-        <v>10218</v>
-      </c>
-      <c r="F9">
-        <v>32357</v>
-      </c>
-      <c r="G9">
-        <v>0.036</v>
-      </c>
-      <c r="H9">
-        <v>0.011</v>
-      </c>
-      <c r="I9">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="J9">
-        <v>102289.9834359967</v>
-      </c>
-      <c r="K9">
-        <v>87048775.90403315</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>41.15857988165681</v>
-      </c>
-      <c r="C10">
-        <v>8.780703559870549</v>
-      </c>
-      <c r="D10">
-        <v>845</v>
-      </c>
-      <c r="E10">
-        <v>10983</v>
-      </c>
-      <c r="F10">
-        <v>34779</v>
-      </c>
-      <c r="G10">
-        <v>0.036</v>
-      </c>
-      <c r="H10">
-        <v>0.011</v>
-      </c>
-      <c r="I10">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="J10">
-        <v>109136.7761506524</v>
-      </c>
-      <c r="K10">
-        <v>92220575.84730129</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>44.33849821215733</v>
-      </c>
-      <c r="C11">
-        <v>9.396881385030163</v>
-      </c>
-      <c r="D11">
-        <v>839</v>
-      </c>
-      <c r="E11">
-        <v>11748</v>
-      </c>
-      <c r="F11">
-        <v>37200</v>
-      </c>
-      <c r="G11">
-        <v>0.036</v>
-      </c>
-      <c r="H11">
-        <v>0.011</v>
-      </c>
-      <c r="I11">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="J11">
-        <v>115983.6425463332</v>
-      </c>
-      <c r="K11">
-        <v>97310276.09637351</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>47.50239808153477</v>
-      </c>
-      <c r="C12">
-        <v>10.01048623681418</v>
-      </c>
-      <c r="D12">
-        <v>834</v>
-      </c>
-      <c r="E12">
-        <v>12511</v>
-      </c>
-      <c r="F12">
-        <v>39617</v>
-      </c>
-      <c r="G12">
-        <v>0.036</v>
-      </c>
-      <c r="H12">
-        <v>0.011</v>
-      </c>
-      <c r="I12">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="J12">
-        <v>122817.920092624</v>
-      </c>
-      <c r="K12">
-        <v>102430145.3572485</v>
       </c>
     </row>
   </sheetData>
